--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學2.xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -664,7 +664,9 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -726,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -755,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -784,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -813,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -842,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -871,7 +873,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -900,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -929,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -958,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -987,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1016,7 +1018,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1045,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1074,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1103,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1132,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1161,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1190,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1219,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1248,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1277,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1306,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1335,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1364,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1393,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1422,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1451,7 +1453,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1480,7 +1482,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1509,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1538,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1567,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1596,7 +1598,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1625,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1654,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1683,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1712,7 +1714,7 @@
         <v>20</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1741,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1770,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1799,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1828,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1857,7 +1859,7 @@
         <v>20</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1886,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1915,7 +1917,7 @@
         <v>20</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1944,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1973,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2002,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2031,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2060,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2089,7 +2091,7 @@
         <v>20</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2118,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2147,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2176,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2205,7 +2207,7 @@
         <v>20</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2234,7 +2236,7 @@
         <v>30</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2263,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2321,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2350,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2379,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2408,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2437,7 +2439,7 @@
         <v>20</v>
       </c>
       <c r="I61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2466,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2495,7 +2497,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2524,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
